--- a/Assets/Resource/ExcelData/enum.xlsx
+++ b/Assets/Resource/ExcelData/enum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TextRPG\Assets\Resource\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34107199-9E37-4530-92F6-FA9EF7EAAC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065CC90F-3D83-4536-9899-CF0D8DED5517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="6588" windowWidth="17136" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="8940" yWindow="4440" windowWidth="25620" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="ch1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>text</t>
   </si>
@@ -206,6 +206,22 @@
   </si>
   <si>
     <t>최대값(stack_amount)를 기준 스탯 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recursive_group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복 페이지 호출 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not_enough_own_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 아이템을 몇 개 미만 갖고 있을 때 발생</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,20 +664,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.3984375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
@@ -811,49 +827,49 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>UPPER(A10)&amp;"_"&amp;UPPER(B10)</f>
+        <v>PAGE_TYPE_RECURSIVE_GROUP</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <f t="shared" ref="C11:C21" si="0">UPPER(A11)&amp;"_"&amp;UPPER(B11)</f>
-        <v>OCCUR_CONDITION_OWN_ITEM</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>OCCUR_CONDITION_STATUS_HIGH</v>
+        <f t="shared" ref="C12:C23" si="0">UPPER(A12)&amp;"_"&amp;UPPER(B12)</f>
+        <v>OCCUR_CONDITION_OWN_ITEM</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -861,17 +877,17 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>OCCUR_CONDITION_STATUS_LOW</v>
+        <v>OCCUR_CONDITION_STATUS_HIGH</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -879,49 +895,58 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
+        <v>OCCUR_CONDITION_STATUS_LOW</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>OCCUR_CONDITION_PAGE_VIEWED</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D15" s="1">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ITEM_TYPE_NORMAL</v>
+        <v>OCCUR_CONDITION_NOT_ENOUGH_OWN_ITEM</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -930,106 +955,133 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ITEM_FUNCTION_TYPE_CHAGE_STATUS</v>
+        <v>ITEM_TYPE_NORMAL</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ITEM_FUNCTION_TYPE_CHAGE_STATUS</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="1" t="str">
+      <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>ITEM_FUNCTION_TYPE_MOVE_PAGE</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="22" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="1" t="str">
+      <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>STATUS_FUNCTION_TYPE_MAX_STAT</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D23" s="1">
         <v>0</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resource/ExcelData/enum.xlsx
+++ b/Assets/Resource/ExcelData/enum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TextRPG\Assets\Resource\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065CC90F-3D83-4536-9899-CF0D8DED5517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2809865B-9863-4977-9253-336EC724FC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="4440" windowWidth="25620" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="2280" yWindow="5916" windowWidth="25620" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="ch1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>text</t>
   </si>
@@ -222,6 +222,14 @@
   </si>
   <si>
     <t>특정 아이템을 몇 개 미만 갖고 있을 때 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>획득할 때, 스탯 1당 추가 스탯 획득</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,7 +676,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -745,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>UPPER(A5)&amp;"_"&amp;UPPER(B5)</f>
+        <f t="shared" ref="C5:C10" si="0">UPPER(A5)&amp;"_"&amp;UPPER(B5)</f>
         <v>PAGE_TYPE_TEXT</v>
       </c>
       <c r="D5" s="1">
@@ -763,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>UPPER(A6)&amp;"_"&amp;UPPER(B6)</f>
+        <f t="shared" si="0"/>
         <v>PAGE_TYPE_IMG</v>
       </c>
       <c r="D6" s="1">
@@ -781,7 +789,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>UPPER(A7)&amp;"_"&amp;UPPER(B7)</f>
+        <f t="shared" si="0"/>
         <v>PAGE_TYPE_BUTTON</v>
       </c>
       <c r="D7" s="1">
@@ -799,7 +807,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>UPPER(A8)&amp;"_"&amp;UPPER(B8)</f>
+        <f t="shared" si="0"/>
         <v>PAGE_TYPE_GET_ITEM</v>
       </c>
       <c r="D8" s="1">
@@ -817,7 +825,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>UPPER(A9)&amp;"_"&amp;UPPER(B9)</f>
+        <f t="shared" si="0"/>
         <v>PAGE_TYPE_STATUS</v>
       </c>
       <c r="D9" s="1">
@@ -835,7 +843,7 @@
         <v>47</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f>UPPER(A10)&amp;"_"&amp;UPPER(B10)</f>
+        <f t="shared" si="0"/>
         <v>PAGE_TYPE_RECURSIVE_GROUP</v>
       </c>
       <c r="D10" s="1">
@@ -862,7 +870,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f t="shared" ref="C12:C23" si="0">UPPER(A12)&amp;"_"&amp;UPPER(B12)</f>
+        <f t="shared" ref="C12:C24" si="1">UPPER(A12)&amp;"_"&amp;UPPER(B12)</f>
         <v>OCCUR_CONDITION_OWN_ITEM</v>
       </c>
       <c r="D12" s="1">
@@ -880,7 +888,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OCCUR_CONDITION_STATUS_HIGH</v>
       </c>
       <c r="D13" s="1">
@@ -898,7 +906,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OCCUR_CONDITION_STATUS_LOW</v>
       </c>
       <c r="D14" s="1">
@@ -916,7 +924,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OCCUR_CONDITION_PAGE_VIEWED</v>
       </c>
       <c r="D15" s="1">
@@ -934,7 +942,7 @@
         <v>49</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>OCCUR_CONDITION_NOT_ENOUGH_OWN_ITEM</v>
       </c>
       <c r="D16" s="1">
@@ -961,7 +969,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ITEM_TYPE_NORMAL</v>
       </c>
       <c r="D18" s="1">
@@ -988,7 +996,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ITEM_FUNCTION_TYPE_CHAGE_STATUS</v>
       </c>
       <c r="D20" s="1">
@@ -1006,7 +1014,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ITEM_FUNCTION_TYPE_MOVE_PAGE</v>
       </c>
       <c r="D21" s="1">
@@ -1044,7 +1052,7 @@
         <v>32</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STATUS_FUNCTION_TYPE_MAX_STAT</v>
       </c>
       <c r="D23" s="1">
@@ -1066,11 +1074,22 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>STATUS_FUNCTION_TYPE_GET_STAT</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>

--- a/Assets/Resource/ExcelData/enum.xlsx
+++ b/Assets/Resource/ExcelData/enum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TextRPG\Assets\Resource\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2809865B-9863-4977-9253-336EC724FC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F81E6D2-5E5A-4566-AD49-7DC80FA28612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="5916" windowWidth="25620" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="8160" yWindow="6012" windowWidth="35832" windowHeight="19704" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="ch1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>text</t>
   </si>
@@ -230,6 +230,56 @@
   </si>
   <si>
     <t>획득할 때, 스탯 1당 추가 스탯 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_weapon</t>
+  </si>
+  <si>
+    <t>equip_head</t>
+  </si>
+  <si>
+    <t>equip_armor</t>
+  </si>
+  <si>
+    <t>equip_shoes</t>
+  </si>
+  <si>
+    <t>equip_ring</t>
+  </si>
+  <si>
+    <t>equip_necklace</t>
+  </si>
+  <si>
+    <t>장비 아이템 - 무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 아이템 - 투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 아이템 - 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 아이템 - 신발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 아이템 - 반지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 아이템 - 목걸이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,11 +722,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -870,7 +920,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f t="shared" ref="C12:C24" si="1">UPPER(A12)&amp;"_"&amp;UPPER(B12)</f>
+        <f t="shared" ref="C12:C31" si="1">UPPER(A12)&amp;"_"&amp;UPPER(B12)</f>
         <v>OCCUR_CONDITION_OWN_ITEM</v>
       </c>
       <c r="D12" s="1">
@@ -979,128 +1029,254 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ITEM_TYPE_EQUIP_WEAPON</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>ITEM_FUNCTION_TYPE_CHAGE_STATUS</v>
+        <v>ITEM_TYPE_EQUIP_HEAD</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>ITEM_FUNCTION_TYPE_MOVE_PAGE</v>
+        <v>ITEM_TYPE_EQUIP_ARMOR</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ITEM_TYPE_EQUIP_SHOES</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>STATUS_FUNCTION_TYPE_MAX_STAT</v>
+        <v>ITEM_TYPE_EQUIP_RING</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+        <v>65</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ITEM_TYPE_EQUIP_NECKLACE</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ITEM_FUNCTION_TYPE_CHAGE_STATUS</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ITEM_FUNCTION_TYPE_MOVE_PAGE</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ITEM_FUNCTION_TYPE_EQUIP</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>STATUS_FUNCTION_TYPE_MAX_STAT</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="1" t="str">
+      <c r="C31" s="1" t="str">
         <f t="shared" si="1"/>
         <v>STATUS_FUNCTION_TYPE_GET_STAT</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D31" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resource/ExcelData/enum.xlsx
+++ b/Assets/Resource/ExcelData/enum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TextRPG\Assets\Resource\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F81E6D2-5E5A-4566-AD49-7DC80FA28612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917460BD-7399-4F4C-B9FA-AAEA3B9575AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="6012" windowWidth="35832" windowHeight="19704" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="6084" yWindow="5988" windowWidth="35832" windowHeight="19704" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="ch1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
   <si>
     <t>text</t>
   </si>
@@ -281,6 +281,93 @@
   <si>
     <t>장비 아이템 - 목걸이</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 페이지 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#몬스터 행동 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action_type</t>
+  </si>
+  <si>
+    <t>normal_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dodge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탯 버핑 후 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프(몬스터 자신)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프(플레이어 대상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle_selecton_type</t>
+  </si>
+  <si>
+    <t>몬스터 행동 캔슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약점 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action_cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#전투 추가 선택지 출력 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#전투 추가 선택지 처리 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action_result_type</t>
+  </si>
+  <si>
+    <t>own_item</t>
+  </si>
+  <si>
+    <t>status_high</t>
   </si>
 </sst>
 </file>
@@ -722,11 +809,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -803,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f t="shared" ref="C5:C10" si="0">UPPER(A5)&amp;"_"&amp;UPPER(B5)</f>
+        <f t="shared" ref="C5:C11" si="0">UPPER(A5)&amp;"_"&amp;UPPER(B5)</f>
         <v>PAGE_TYPE_TEXT</v>
       </c>
       <c r="D5" s="1">
@@ -903,49 +990,49 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>PAGE_TYPE_BATTLE</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <f t="shared" ref="C12:C31" si="1">UPPER(A12)&amp;"_"&amp;UPPER(B12)</f>
-        <v>OCCUR_CONDITION_OWN_ITEM</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>OCCUR_CONDITION_STATUS_HIGH</v>
+        <f t="shared" ref="C13:C41" si="1">UPPER(A13)&amp;"_"&amp;UPPER(B13)</f>
+        <v>OCCUR_CONDITION_OWN_ITEM</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -953,17 +1040,17 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>OCCUR_CONDITION_STATUS_LOW</v>
+        <v>OCCUR_CONDITION_STATUS_HIGH</v>
       </c>
       <c r="D14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -971,17 +1058,17 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>OCCUR_CONDITION_PAGE_VIEWED</v>
+        <v>OCCUR_CONDITION_STATUS_LOW</v>
       </c>
       <c r="D15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -989,62 +1076,62 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>OCCUR_CONDITION_PAGE_VIEWED</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="1" t="str">
+      <c r="C17" s="1" t="str">
         <f t="shared" si="1"/>
         <v>OCCUR_CONDITION_NOT_ENOUGH_OWN_ITEM</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D17" s="1">
         <v>4</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ITEM_TYPE_NORMAL</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>ITEM_TYPE_EQUIP_WEAPON</v>
+        <v>ITEM_TYPE_NORMAL</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -1052,17 +1139,17 @@
         <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>ITEM_TYPE_EQUIP_HEAD</v>
+        <v>ITEM_TYPE_EQUIP_WEAPON</v>
       </c>
       <c r="D20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -1070,17 +1157,17 @@
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>ITEM_TYPE_EQUIP_ARMOR</v>
+        <v>ITEM_TYPE_EQUIP_HEAD</v>
       </c>
       <c r="D21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -1088,17 +1175,17 @@
         <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>ITEM_TYPE_EQUIP_SHOES</v>
+        <v>ITEM_TYPE_EQUIP_ARMOR</v>
       </c>
       <c r="D22" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -1106,17 +1193,17 @@
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>ITEM_TYPE_EQUIP_RING</v>
+        <v>ITEM_TYPE_EQUIP_SHOES</v>
       </c>
       <c r="D23" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -1124,62 +1211,62 @@
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ITEM_TYPE_EQUIP_RING</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="1" t="str">
+      <c r="C25" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ITEM_TYPE_EQUIP_NECKLACE</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D25" s="1">
         <v>6</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ITEM_FUNCTION_TYPE_CHAGE_STATUS</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>ITEM_FUNCTION_TYPE_MOVE_PAGE</v>
+        <v>ITEM_FUNCTION_TYPE_CHAGE_STATUS</v>
       </c>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -1187,84 +1274,73 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ITEM_FUNCTION_TYPE_MOVE_PAGE</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1" t="str">
+      <c r="C29" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ITEM_FUNCTION_TYPE_EQUIP</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D29" s="1">
         <v>2</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>STATUS_FUNCTION_TYPE_MAX_STAT</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>STATUS_FUNCTION_TYPE_GET_STAT</v>
+        <v>STATUS_FUNCTION_TYPE_MAX_STAT</v>
       </c>
       <c r="D31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1278,6 +1354,257 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>STATUS_FUNCTION_TYPE_GET_STAT</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ACTION_TYPE_NORMAL_ATTACK</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ACTION_TYPE_SPECIAL_ATTACK</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ACTION_TYPE_DODGE</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ACTION_TYPE_BUFF</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ACTION_TYPE_DEBUFF</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BATTLE_SELECTON_TYPE_OWN_ITEM</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A41" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>BATTLE_SELECTON_TYPE_STATUS_HIGH</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f t="shared" ref="C43:C44" si="2">UPPER(A43)&amp;"_"&amp;UPPER(B43)</f>
+        <v>ACTION_RESULT_TYPE_ACTION_CANCEL</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A44" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>ACTION_RESULT_TYPE_SPECIAL_ATTACK</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resource/ExcelData/enum.xlsx
+++ b/Assets/Resource/ExcelData/enum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TextRPG\Assets\Resource\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917460BD-7399-4F4C-B9FA-AAEA3B9575AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C388071F-2AD1-4E13-A144-20B9D7C2E71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6084" yWindow="5988" windowWidth="35832" windowHeight="19704" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="5532" yWindow="4584" windowWidth="35832" windowHeight="19692" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="ch1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="83">
   <si>
     <t>text</t>
   </si>
@@ -291,10 +291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#몬스터 행동 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>action_type</t>
   </si>
   <si>
@@ -330,44 +326,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>버프(몬스터 자신)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디버프(플레이어 대상)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battle_selecton_type</t>
-  </si>
-  <si>
-    <t>몬스터 행동 캔슬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>약점 공격</t>
+    <t>#행동 타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>action_cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#전투 추가 선택지 출력 조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#전투 추가 선택지 처리 방식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>action_result_type</t>
-  </si>
-  <si>
-    <t>own_item</t>
-  </si>
-  <si>
-    <t>status_high</t>
+  </si>
+  <si>
+    <t>행동 캔슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프(자신 대상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프(적 대상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -809,11 +784,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -1025,7 +1000,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f t="shared" ref="C13:C41" si="1">UPPER(A13)&amp;"_"&amp;UPPER(B13)</f>
+        <f t="shared" ref="C13:C39" si="1">UPPER(A13)&amp;"_"&amp;UPPER(B13)</f>
         <v>OCCUR_CONDITION_OWN_ITEM</v>
       </c>
       <c r="D13" s="1">
@@ -1385,7 +1360,7 @@
     </row>
     <row r="33" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1405,10 +1380,10 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1418,15 +1393,15 @@
         <v>0</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1436,15 +1411,15 @@
         <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1454,15 +1429,15 @@
         <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1472,15 +1447,15 @@
         <v>3</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1490,119 +1465,25 @@
         <v>4</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ACTION_TYPE_ACTION_CANCEL</v>
+      </c>
+      <c r="D39" s="3">
+        <v>5</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>BATTLE_SELECTON_TYPE_OWN_ITEM</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A41" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>BATTLE_SELECTON_TYPE_STATUS_HIGH</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="1" t="str">
-        <f t="shared" ref="C43:C44" si="2">UPPER(A43)&amp;"_"&amp;UPPER(B43)</f>
-        <v>ACTION_RESULT_TYPE_ACTION_CANCEL</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A44" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ACTION_RESULT_TYPE_SPECIAL_ATTACK</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resource/ExcelData/enum.xlsx
+++ b/Assets/Resource/ExcelData/enum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TextRPG\Assets\Resource\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C388071F-2AD1-4E13-A144-20B9D7C2E71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409EA24D-AEBF-4A6A-ACAF-E468647E3F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5532" yWindow="4584" windowWidth="35832" windowHeight="19692" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="6228" yWindow="5280" windowWidth="35832" windowHeight="19692" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="ch1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
   <si>
     <t>text</t>
   </si>
@@ -343,6 +343,38 @@
   <si>
     <t>디버프(적 대상)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#업적 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ach_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_view</t>
+  </si>
+  <si>
+    <t>특정 페이지 열람 시 달성 처리함</t>
+  </si>
+  <si>
+    <t>own_item</t>
+  </si>
+  <si>
+    <t>아이템 획득에 따른 카운트 item_type을 입력하여, 특수한 아이템 카테고리 수집에 때한 업적도 정의할 수 있음</t>
+  </si>
+  <si>
+    <t>kill_monster</t>
+  </si>
+  <si>
+    <t>몬스터 처치 횟수에 따른 카운트 몬스터 id를 입력하여, 특수한 몬스터 처치에 대한 업적도 정의할 수 있음</t>
+  </si>
+  <si>
+    <t>dead_count</t>
+  </si>
+  <si>
+    <t>사망한 횟수에 카운트</t>
   </si>
 </sst>
 </file>
@@ -784,11 +816,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -797,7 +829,7 @@
     <col min="2" max="2" width="17.09765625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.3984375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="3" customWidth="1"/>
-    <col min="5" max="5" width="32.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.69921875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
@@ -1000,7 +1032,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f t="shared" ref="C13:C39" si="1">UPPER(A13)&amp;"_"&amp;UPPER(B13)</f>
+        <f t="shared" ref="C13:C44" si="1">UPPER(A13)&amp;"_"&amp;UPPER(B13)</f>
         <v>OCCUR_CONDITION_OWN_ITEM</v>
       </c>
       <c r="D13" s="1">
@@ -1486,6 +1518,98 @@
         <v>80</v>
       </c>
     </row>
+    <row r="40" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ACH_TYPE_PAGE_VIEW</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ACH_TYPE_OWN_ITEM</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ACH_TYPE_KILL_MONSTER</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ACH_TYPE_DEAD_COUNT</v>
+      </c>
+      <c r="D44" s="3">
+        <v>3</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resource/ExcelData/enum.xlsx
+++ b/Assets/Resource/ExcelData/enum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TextRPG\Assets\Resource\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409EA24D-AEBF-4A6A-ACAF-E468647E3F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C6EF7B-DE12-40C1-8D86-DDBE7ED8698C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6228" yWindow="5280" windowWidth="35832" windowHeight="19692" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="5928" yWindow="6228" windowWidth="35832" windowHeight="19692" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="ch1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="103">
   <si>
     <t>text</t>
   </si>
@@ -375,6 +375,46 @@
   </si>
   <si>
     <t>사망한 횟수에 카운트</t>
+  </si>
+  <si>
+    <t>#컨텐츠 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능력치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -816,11 +856,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -1032,7 +1072,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f t="shared" ref="C13:C44" si="1">UPPER(A13)&amp;"_"&amp;UPPER(B13)</f>
+        <f t="shared" ref="C13:C49" si="1">UPPER(A13)&amp;"_"&amp;UPPER(B13)</f>
         <v>OCCUR_CONDITION_OWN_ITEM</v>
       </c>
       <c r="D13" s="1">
@@ -1610,6 +1650,98 @@
         <v>92</v>
       </c>
     </row>
+    <row r="45" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CONTENT_TYPE_ITEM</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CONTENT_TYPE_STATUS</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CONTENT_TYPE_ACHIEVEMENT</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CONTENT_TYPE_COLLECTION</v>
+      </c>
+      <c r="D49" s="3">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
